--- a/configs/attributes_notification.xlsx
+++ b/configs/attributes_notification.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demid\Documents\ИНК\python_ink\appius-mto-neosintez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demid\Documents\python\work_projects\appius-mto-neosintez\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A6869-1EB5-4D41-9A00-EE49680A3F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5BEEC-2FC4-4904-8C7B-AFA957034671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACD5EDCE-5462-4D4A-8670-E1A96D14B552}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -135,10 +135,16 @@
     <t>cb67f5e8-0315-ea11-910b-005056b6948b</t>
   </si>
   <si>
-    <t>Потребность-Дата отгрузки-Дата прихода</t>
-  </si>
-  <si>
     <t>Резервирование/Планирование закупок/Спецификация/РасходныйДокумент/Поступление/Уведомление об отгрузке.Договор.Контрагент, Код</t>
+  </si>
+  <si>
+    <t>Потребность-Уведомление</t>
+  </si>
+  <si>
+    <t>6532ec8d-56cd-ed11-9165-005056b6948b</t>
+  </si>
+  <si>
+    <t>Резервирование/Планирование закупок/Спецификация/РасходныйДокумент/Поступление/Уведомление об отгрузке.Номер</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_Лист3" xfId="1" xr:uid="{CC9F1E92-83C7-4075-9C41-317146FF9CBC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -211,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +516,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -688,7 +694,18 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">

--- a/configs/attributes_notification.xlsx
+++ b/configs/attributes_notification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demid\Documents\python\work_projects\appius-mto-neosintez\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E5BEEC-2FC4-4904-8C7B-AFA957034671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1025C9F2-8BF8-4279-BAF4-E155A6B13034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACD5EDCE-5462-4D4A-8670-E1A96D14B552}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -96,15 +96,6 @@
     <t>c60bff0b-8759-ec11-911a-005056b6948b</t>
   </si>
   <si>
-    <t>38ee5557-9efe-ec11-9136-005056b6948b</t>
-  </si>
-  <si>
-    <t>b962dcee-91fe-ec11-9136-005056b6948b</t>
-  </si>
-  <si>
-    <t>4c5674da-94fe-ec11-9136-005056b6948b</t>
-  </si>
-  <si>
     <t>ЕИ</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
   </si>
   <si>
     <t>cb67f5e8-0315-ea11-910b-005056b6948b</t>
-  </si>
-  <si>
-    <t>Резервирование/Планирование закупок/Спецификация/РасходныйДокумент/Поступление/Уведомление об отгрузке.Договор.Контрагент, Код</t>
   </si>
   <si>
     <t>Потребность-Уведомление</t>
@@ -513,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C59750-CE11-4137-A397-5E625D311B92}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -611,111 +599,94 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
